--- a/parsing_table.xlsx
+++ b/parsing_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CIENCIA DA COMPUTAÇAO\4º ANO\Compiladores\H_Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795C5427-B6BE-4DCC-BF95-6E6974B16FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE254F48-6408-46B5-BE2B-DA4BC4B0A876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2790" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -654,9 +654,6 @@
     <t>PROC_WO_VAR</t>
   </si>
   <si>
-    <t>PROC_WO_VAR -&gt; FOR_STUCT PROC_WO_VAR_AUX</t>
-  </si>
-  <si>
     <t>PROC_WO_VAR -&gt; IF_STRUCT PROC_WO_VAR_AUX</t>
   </si>
   <si>
@@ -1315,6 +1312,9 @@
   </si>
   <si>
     <t>CHAR -&gt; ' CHAR_AUX '</t>
+  </si>
+  <si>
+    <t>PROC_WO_VAR -&gt; FOR_STRUCT PROC_WO_VAR_AUX</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CS999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BQ8" sqref="BQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:97" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1865,34 +1865,34 @@
         <v>51</v>
       </c>
       <c r="BB1" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="BC1" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="BH1" s="15" t="s">
-        <v>396</v>
-      </c>
       <c r="BI1" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BJ1" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK1" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BL1" s="8" t="s">
         <v>52</v>
@@ -1955,13 +1955,13 @@
         <v>71</v>
       </c>
       <c r="CF1" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="CG1" s="8" t="s">
         <v>72</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="CI1" s="8" t="s">
         <v>73</v>
@@ -1976,16 +1976,16 @@
         <v>76</v>
       </c>
       <c r="CM1" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="CN1" s="8" t="s">
         <v>77</v>
       </c>
       <c r="CO1" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="CP1" s="8" t="s">
         <v>420</v>
-      </c>
-      <c r="CP1" s="8" t="s">
-        <v>421</v>
       </c>
       <c r="CQ1" s="8" t="s">
         <v>78</v>
@@ -2916,160 +2916,160 @@
         <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BA6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
@@ -3087,7 +3087,7 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
       <c r="BQ6" s="2" t="s">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="BR6" s="2"/>
       <c r="BS6" s="2"/>
@@ -3100,7 +3100,7 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CC6" s="2"/>
       <c r="CD6" s="2"/>
@@ -3117,172 +3117,172 @@
       <c r="CO6" s="2"/>
       <c r="CP6" s="2"/>
       <c r="CQ6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR6" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="CR6" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="CS6" s="2"/>
     </row>
     <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
@@ -3300,7 +3300,7 @@
       <c r="BO7" s="1"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BR7" s="1"/>
       <c r="BS7" s="1"/>
@@ -3312,10 +3312,10 @@
       <c r="BY7" s="1"/>
       <c r="BZ7" s="1"/>
       <c r="CA7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CC7" s="1"/>
       <c r="CD7" s="1"/>
@@ -3332,172 +3332,172 @@
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CS7" s="1"/>
     </row>
     <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
@@ -3510,20 +3510,20 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BP8" s="2"/>
       <c r="BQ8" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BR8" s="2"/>
       <c r="BS8" s="2"/>
@@ -3536,7 +3536,7 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="CC8" s="2"/>
       <c r="CD8" s="2"/>
@@ -3553,18 +3553,18 @@
       <c r="CO8" s="2"/>
       <c r="CP8" s="2"/>
       <c r="CQ8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CR8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="CR8" s="2" t="s">
+      <c r="CS8" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="CS8" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BR9" s="1"/>
       <c r="BS9" s="1"/>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3840,34 +3840,34 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BC10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BI10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="CB11" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="CC11" s="2"/>
       <c r="CD11" s="2"/>
@@ -4133,163 +4133,163 @@
     </row>
     <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AW12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
@@ -4302,20 +4302,20 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BP12" s="1"/>
       <c r="BQ12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BR12" s="1"/>
       <c r="BS12" s="1"/>
@@ -4327,13 +4327,13 @@
       <c r="BY12" s="1"/>
       <c r="BZ12" s="1"/>
       <c r="CA12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="CC12" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="CB12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CC12" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="CD12" s="1"/>
       <c r="CE12" s="1"/>
@@ -4349,204 +4349,204 @@
       <c r="CO12" s="1"/>
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CR12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CS12" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BA13" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="BC13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="BD13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="BE13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="BF13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="BG13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="BH13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="BI13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="BJ13" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="BK13" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="BA13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BF13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BG13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BI13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BJ13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BK13" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="BL13" s="6"/>
       <c r="BM13" s="6"/>
@@ -4558,7 +4558,7 @@
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
       <c r="BU13" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BV13" s="6"/>
       <c r="BW13" s="6"/>
@@ -4577,17 +4577,17 @@
       <c r="CH13" s="6"/>
       <c r="CI13" s="6"/>
       <c r="CJ13" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CK13" s="6"/>
       <c r="CL13" s="6"/>
       <c r="CM13" s="6"/>
       <c r="CN13" s="6"/>
       <c r="CO13" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CP13" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CQ13" s="6"/>
       <c r="CR13" s="6"/>
@@ -4595,163 +4595,163 @@
     </row>
     <row r="14" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AE14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AK14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AO14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AP14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AR14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AS14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AT14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AU14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AW14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AX14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AY14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AZ14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BA14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
@@ -4773,7 +4773,7 @@
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BV14" s="6"/>
       <c r="BW14" s="6"/>
@@ -4797,10 +4797,10 @@
       <c r="CM14" s="6"/>
       <c r="CN14" s="6"/>
       <c r="CO14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CP14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CQ14" s="6"/>
       <c r="CR14" s="6"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="15" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4897,16 +4897,16 @@
       <c r="CB15" s="6"/>
       <c r="CC15" s="6"/>
       <c r="CD15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE15" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="CE15" s="6" t="s">
+      <c r="CF15" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="CF15" s="6" t="s">
+      <c r="CG15" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="CG15" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="CH15" s="6"/>
       <c r="CI15" s="6"/>
@@ -4923,193 +4923,193 @@
     </row>
     <row r="16" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AP16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AT16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AW16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AX16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AY16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AZ16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BB16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BD16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BF16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BG16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BJ16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BK16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BL16" s="6"/>
       <c r="BM16" s="6"/>
@@ -5134,11 +5134,11 @@
       <c r="CF16" s="6"/>
       <c r="CG16" s="6"/>
       <c r="CH16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CI16" s="6"/>
       <c r="CJ16" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CK16" s="6"/>
       <c r="CL16" s="6"/>
@@ -5152,193 +5152,193 @@
     </row>
     <row r="17" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AY17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="BC17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="BD17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="BE17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="BF17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="BG17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="BH17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="BI17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="BJ17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="BK17" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AS17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AV17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BA17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BB17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BC17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BD17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BG17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BH17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BI17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BJ17" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="BK17" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="BL17" s="6"/>
       <c r="BM17" s="6"/>
@@ -5371,7 +5371,7 @@
       <c r="CH17" s="6"/>
       <c r="CI17" s="6"/>
       <c r="CJ17" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CK17" s="6"/>
       <c r="CL17" s="6"/>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="18" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5460,30 +5460,30 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BW18" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BX18" s="6"/>
       <c r="BY18" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BZ18" s="6"/>
       <c r="CA18" s="6"/>
       <c r="CB18" s="6"/>
       <c r="CC18" s="6"/>
       <c r="CD18" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CE18" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CF18" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CG18" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CH18" s="6"/>
       <c r="CI18" s="6"/>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="19" spans="1:97" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5575,14 +5575,14 @@
       <c r="BT19" s="17"/>
       <c r="BU19" s="17"/>
       <c r="BV19" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="BW19" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="BW19" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BZ19" s="17"/>
       <c r="CA19" s="17"/>
@@ -5607,193 +5607,193 @@
     </row>
     <row r="20" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AE20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AH20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AO20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AP20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AQ20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AT20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AU20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AY20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AZ20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BA20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BB20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BD20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BF20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BH20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BJ20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BK20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BL20" s="6"/>
       <c r="BM20" s="6"/>
@@ -5810,7 +5810,7 @@
       <c r="BV20" s="6"/>
       <c r="BW20" s="6"/>
       <c r="BX20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BY20" s="6">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CK20" s="6"/>
       <c r="CL20" s="6"/>
@@ -5850,193 +5850,193 @@
     </row>
     <row r="21" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AO21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AP21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AQ21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AR21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AS21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AT21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AW21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AX21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AY21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BA21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BB21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BC21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BD21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BE21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BF21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BG21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BH21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BJ21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BK21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BL21" s="6"/>
       <c r="BM21" s="6"/>
@@ -6051,7 +6051,7 @@
       <c r="BV21" s="6"/>
       <c r="BW21" s="6"/>
       <c r="BX21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BY21" s="6"/>
       <c r="BZ21" s="6"/>
@@ -6065,7 +6065,7 @@
       <c r="CH21" s="6"/>
       <c r="CI21" s="6"/>
       <c r="CJ21" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="CK21" s="6"/>
       <c r="CL21" s="6"/>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="22" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6148,7 +6148,7 @@
       <c r="BN22" s="6"/>
       <c r="BO22" s="6"/>
       <c r="BP22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BQ22" s="6"/>
       <c r="BR22" s="6"/>
@@ -6159,36 +6159,36 @@
       <c r="BW22" s="6"/>
       <c r="BX22" s="6"/>
       <c r="BY22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BZ22" s="6"/>
       <c r="CA22" s="6"/>
       <c r="CB22" s="6"/>
       <c r="CC22" s="6"/>
       <c r="CD22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CE22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CF22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CG22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CH22" s="6"/>
       <c r="CI22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CJ22" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="CK22" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="CL22" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="CL22" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="CM22" s="6"/>
       <c r="CN22" s="6"/>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="23" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6269,7 +6269,7 @@
       <c r="BN23" s="6"/>
       <c r="BO23" s="6"/>
       <c r="BP23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BQ23" s="6"/>
       <c r="BR23" s="6"/>
@@ -6280,30 +6280,30 @@
       <c r="BW23" s="6"/>
       <c r="BX23" s="6"/>
       <c r="BY23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BZ23" s="6"/>
       <c r="CA23" s="6"/>
       <c r="CB23" s="6"/>
       <c r="CC23" s="6"/>
       <c r="CD23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CE23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CF23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CG23" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CH23" s="6"/>
       <c r="CI23" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="CJ23" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="CJ23" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="CK23" s="6"/>
       <c r="CL23" s="6"/>
@@ -6317,193 +6317,193 @@
     </row>
     <row r="24" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AN24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AO24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AP24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AQ24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AR24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AS24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AT24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AU24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AW24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AX24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AY24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AZ24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BA24" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BB24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BC24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BD24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BE24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BF24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BG24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BH24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BI24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BJ24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BK24" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BL24" s="6"/>
       <c r="BM24" s="6"/>
@@ -6520,7 +6520,7 @@
       <c r="BV24" s="6"/>
       <c r="BW24" s="6"/>
       <c r="BX24" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BY24" s="6">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="CK24" s="6">
         <v>0</v>
@@ -6564,193 +6564,193 @@
     </row>
     <row r="25" spans="1:97" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AN25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AQ25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AR25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AS25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AT25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AU25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AW25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AX25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AY25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AZ25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BA25" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BB25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BC25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BD25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BE25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BF25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BG25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BH25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BI25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BJ25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BK25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BL25" s="6"/>
       <c r="BM25" s="6"/>
@@ -6779,7 +6779,7 @@
       <c r="CH25" s="6"/>
       <c r="CI25" s="6"/>
       <c r="CJ25" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CK25" s="6"/>
       <c r="CL25" s="6"/>
@@ -6793,163 +6793,163 @@
     </row>
     <row r="26" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AN26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AO26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AQ26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AR26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AS26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AV26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AW26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AX26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AY26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AZ26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BA26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
@@ -7000,193 +7000,193 @@
     </row>
     <row r="27" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AK27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AO27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AP27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AQ27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AR27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AT27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AX27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AZ27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BA27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BC27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BJ27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
@@ -7214,22 +7214,22 @@
       <c r="CG27" s="2"/>
       <c r="CH27" s="2"/>
       <c r="CI27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CJ27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CK27" s="2"/>
       <c r="CL27" s="2"/>
       <c r="CM27" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CN27" s="2"/>
       <c r="CO27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CP27" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="2"/>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="28" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -7292,34 +7292,34 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC28" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="BC28" s="1" t="s">
+      <c r="BD28" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="BD28" s="1" t="s">
+      <c r="BE28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="BE28" s="1" t="s">
+      <c r="BF28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="BF28" s="1" t="s">
+      <c r="BG28" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BG28" s="1" t="s">
+      <c r="BH28" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BH28" s="1" t="s">
+      <c r="BI28" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="BI28" s="1" t="s">
+      <c r="BJ28" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="BJ28" s="1" t="s">
+      <c r="BK28" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="BK28" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="BL28" s="1"/>
       <c r="BM28" s="1"/>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="29" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -7415,34 +7415,34 @@
       <c r="AZ29" s="2"/>
       <c r="BA29" s="4"/>
       <c r="BB29" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BC29" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BC29" s="4" t="s">
+      <c r="BD29" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="BD29" s="4" t="s">
+      <c r="BE29" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="BE29" s="4" t="s">
+      <c r="BF29" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BF29" s="4" t="s">
+      <c r="BG29" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="BG29" s="4" t="s">
+      <c r="BH29" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="BH29" s="4" t="s">
+      <c r="BI29" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="BI29" s="4" t="s">
+      <c r="BJ29" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="BJ29" s="4" t="s">
+      <c r="BK29" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="BK29" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="30" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7538,34 +7538,34 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BD30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BE30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BF30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BH30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BJ30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BK30" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BL30" s="1"/>
       <c r="BM30" s="1"/>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="CJ30" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CK30" s="1">
         <v>0</v>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="31" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7683,34 +7683,34 @@
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC31" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="BC31" s="5" t="s">
+      <c r="BD31" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="BD31" s="2" t="s">
+      <c r="BE31" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="BE31" s="2" t="s">
+      <c r="BF31" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="BF31" s="2" t="s">
+      <c r="BG31" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="BG31" s="2" t="s">
+      <c r="BH31" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="BH31" s="2" t="s">
+      <c r="BI31" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BI31" s="2" t="s">
+      <c r="BJ31" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="BJ31" s="2" t="s">
+      <c r="BK31" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="BK31" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="32" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="CJ32" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="CK32" s="1">
         <v>0</v>
@@ -7896,7 +7896,7 @@
     </row>
     <row r="33" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7951,91 +7951,91 @@
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC33" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BC33" s="2" t="s">
+      <c r="BD33" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BD33" s="2" t="s">
+      <c r="BE33" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BE33" s="2" t="s">
+      <c r="BF33" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BF33" s="2" t="s">
+      <c r="BG33" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BG33" s="2" t="s">
+      <c r="BH33" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BH33" s="2" t="s">
+      <c r="BI33" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BI33" s="2" t="s">
+      <c r="BJ33" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BJ33" s="2" t="s">
+      <c r="BK33" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="BK33" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
       <c r="BN33" s="2"/>
       <c r="BO33" s="2"/>
       <c r="BP33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BQ33" s="2"/>
       <c r="BR33" s="2"/>
       <c r="BS33" s="2"/>
       <c r="BT33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BU33" s="2"/>
       <c r="BV33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BW33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BX33" s="2"/>
       <c r="BY33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
       <c r="CC33" s="2"/>
       <c r="CD33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CE33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CF33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CG33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CH33" s="2"/>
       <c r="CI33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CJ33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CK33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CL33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CM33" s="2"/>
       <c r="CN33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="CO33" s="2"/>
       <c r="CP33" s="2"/>
@@ -8045,7 +8045,7 @@
     </row>
     <row r="34" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8114,7 +8114,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
       <c r="BP34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BQ34" s="1"/>
       <c r="BR34" s="1"/>
@@ -8122,47 +8122,47 @@
       <c r="BT34" s="1"/>
       <c r="BU34" s="1"/>
       <c r="BV34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BX34" s="1"/>
       <c r="BY34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BZ34" s="1"/>
       <c r="CA34" s="1"/>
       <c r="CB34" s="1"/>
       <c r="CC34" s="1"/>
       <c r="CD34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CE34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CF34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CG34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CH34" s="1"/>
       <c r="CI34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CJ34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CK34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CL34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CM34" s="1"/>
       <c r="CN34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="CO34" s="1"/>
       <c r="CP34" s="1"/>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="35" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8266,7 +8266,7 @@
       <c r="CK35" s="2"/>
       <c r="CL35" s="2"/>
       <c r="CM35" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="CN35" s="2"/>
       <c r="CO35" s="2"/>
@@ -8277,193 +8277,193 @@
     </row>
     <row r="36" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="Y36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AB36" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AE36" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AF36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AG36" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AG36" s="1" t="s">
+      <c r="AH36" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AH36" s="1" t="s">
+      <c r="AI36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AI36" s="1" t="s">
+      <c r="AJ36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AJ36" s="1" t="s">
+      <c r="AK36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AK36" s="1" t="s">
+      <c r="AL36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="AM36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AM36" s="1" t="s">
+      <c r="AN36" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AN36" s="1" t="s">
+      <c r="AO36" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AO36" s="1" t="s">
+      <c r="AP36" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AP36" s="1" t="s">
+      <c r="AQ36" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AQ36" s="1" t="s">
+      <c r="AR36" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AR36" s="1" t="s">
+      <c r="AS36" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AS36" s="1" t="s">
+      <c r="AT36" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AT36" s="1" t="s">
+      <c r="AU36" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AU36" s="1" t="s">
+      <c r="AV36" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AV36" s="1" t="s">
+      <c r="AW36" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AW36" s="1" t="s">
+      <c r="AX36" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AX36" s="1" t="s">
+      <c r="AY36" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AY36" s="1" t="s">
+      <c r="AZ36" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AZ36" s="1" t="s">
+      <c r="BA36" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BA36" s="1" t="s">
+      <c r="BB36" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="BB36" s="1" t="s">
+      <c r="BC36" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BC36" s="1" t="s">
+      <c r="BD36" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="BD36" s="1" t="s">
+      <c r="BE36" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BE36" s="1" t="s">
+      <c r="BF36" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BF36" s="1" t="s">
+      <c r="BG36" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BG36" s="1" t="s">
+      <c r="BH36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BH36" s="1" t="s">
+      <c r="BI36" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BI36" s="1" t="s">
+      <c r="BJ36" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BJ36" s="1" t="s">
+      <c r="BK36" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="BK36" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="37" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8614,10 +8614,10 @@
       <c r="CM37" s="2"/>
       <c r="CN37" s="2"/>
       <c r="CO37" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="CP37" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="CP37" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="CQ37" s="2"/>
       <c r="CR37" s="2"/>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="38" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -8839,7 +8839,7 @@
       <c r="CO38" s="1"/>
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CR38" s="1">
         <v>0</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="39" spans="1:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="CR39" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CS39" s="2">
         <v>0</v>
